--- a/ava/Availability/Report/Cmd/cmd_data_substation_2025-01.xlsx
+++ b/ava/Availability/Report/Cmd/cmd_data_substation_2025-01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develop\scada\ava\Availability\Report\Cmd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822BE2F0-3A3A-4649-A31B-B5955126CE93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C21F8505-ED0D-46DE-8369-A19B12293287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -935,17 +935,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.25" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="35.25" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="16" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="12" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="31.25" customWidth="1"/>
+    <col min="3" max="3" width="35.25" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
     <col min="6" max="6" width="14.25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.25" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.25" customWidth="1"/>
